--- a/biology/Histoire de la zoologie et de la botanique/Hubert_Lyman_Clark/Hubert_Lyman_Clark.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Hubert_Lyman_Clark/Hubert_Lyman_Clark.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hubert Lyman Clark est un zoologiste américain, né le 9 janvier 1870 à Amherst (Massachusetts) et mort le 31 juillet 1947 à Cambridge.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de William Smith et d’Harriet Kapuolani Richards née Williston. Il obtient un Bachelor of Arts à l’Amherst College en 1892, puis un Ph. D. à l’université Johns-Hopkins en 1897.
 Il se marie, le 4 avril 1899 à Fannie Lee Snell dont il aura quatre enfants. Il enseigne la biologie à l’Olivet College de 1899 à 1905. De 1905 à 1912, il est assistant au Museum of Comparative Zoology. Dans la même institution, il est conservateur des échinodermes de 1912 à 1927. L’université d’Oliver du Michigan lui offre un Bachelor of Sciences honorifique en 1927. À partir de cette date, il est conservateur des invertébrés marins ainsi que professeur assistant de zoologie. En 1936, il devient professeur associé à l’université Stanford, puis de 1946 à 1947, chercheur associé à la Fondation Hancock à l’université de Californie du Sud.
